--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cadm1-Crtam.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cadm1-Crtam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Crtam</t>
   </si>
   <si>
-    <t>M2</t>
+    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.08016956906735</v>
+        <v>1.244849666666667</v>
       </c>
       <c r="H2">
-        <v>1.08016956906735</v>
+        <v>3.734549</v>
       </c>
       <c r="I2">
-        <v>0.1580571957516917</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="J2">
-        <v>0.1580571957516917</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.306407051530485</v>
+        <v>0.04871</v>
       </c>
       <c r="N2">
-        <v>0.306407051530485</v>
+        <v>0.14613</v>
       </c>
       <c r="O2">
-        <v>0.5714872124710203</v>
+        <v>0.05815566200866863</v>
       </c>
       <c r="P2">
-        <v>0.5714872124710203</v>
+        <v>0.05815566200866864</v>
       </c>
       <c r="Q2">
-        <v>0.3309715728108813</v>
+        <v>0.06063662726333333</v>
       </c>
       <c r="R2">
-        <v>0.3309715728108813</v>
+        <v>0.54572964537</v>
       </c>
       <c r="S2">
-        <v>0.09032766621112068</v>
+        <v>0.005407444787172551</v>
       </c>
       <c r="T2">
-        <v>0.09032766621112068</v>
+        <v>0.005407444787172553</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,309 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.08016956906735</v>
+        <v>1.244849666666667</v>
       </c>
       <c r="H3">
-        <v>1.08016956906735</v>
+        <v>3.734549</v>
       </c>
       <c r="I3">
-        <v>0.1580571957516917</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="J3">
-        <v>0.1580571957516917</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.229750267205711</v>
+        <v>0.059142</v>
       </c>
       <c r="N3">
-        <v>0.229750267205711</v>
+        <v>0.177426</v>
       </c>
       <c r="O3">
-        <v>0.4285127875289797</v>
+        <v>0.07061059664374214</v>
       </c>
       <c r="P3">
-        <v>0.4285127875289797</v>
+        <v>0.07061059664374215</v>
       </c>
       <c r="Q3">
-        <v>0.2481692471207014</v>
+        <v>0.073622898986</v>
       </c>
       <c r="R3">
-        <v>0.2481692471207014</v>
+        <v>0.662606090874</v>
       </c>
       <c r="S3">
-        <v>0.06772952954057102</v>
+        <v>0.006565532736665141</v>
       </c>
       <c r="T3">
-        <v>0.06772952954057102</v>
+        <v>0.006565532736665142</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.03129904771186</v>
+        <v>1.244849666666667</v>
       </c>
       <c r="H4">
-        <v>4.03129904771186</v>
+        <v>3.734549</v>
       </c>
       <c r="I4">
-        <v>0.5898849967306132</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="J4">
-        <v>0.5898849967306132</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.306407051530485</v>
+        <v>0.3153840000000001</v>
       </c>
       <c r="N4">
-        <v>0.306407051530485</v>
+        <v>0.9461520000000001</v>
       </c>
       <c r="O4">
-        <v>0.5714872124710203</v>
+        <v>0.3765420921154167</v>
       </c>
       <c r="P4">
-        <v>0.5714872124710203</v>
+        <v>0.3765420921154167</v>
       </c>
       <c r="Q4">
-        <v>1.235218455047043</v>
+        <v>0.3926056672720001</v>
       </c>
       <c r="R4">
-        <v>1.235218455047043</v>
+        <v>3.533451005448</v>
       </c>
       <c r="S4">
-        <v>0.3371117324600551</v>
+        <v>0.0350117340742687</v>
       </c>
       <c r="T4">
-        <v>0.3371117324600551</v>
+        <v>0.0350117340742687</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.03129904771186</v>
+        <v>1.244849666666667</v>
       </c>
       <c r="H5">
-        <v>4.03129904771186</v>
+        <v>3.734549</v>
       </c>
       <c r="I5">
-        <v>0.5898849967306132</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="J5">
-        <v>0.5898849967306132</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.229750267205711</v>
+        <v>0.2537053333333333</v>
       </c>
       <c r="N5">
-        <v>0.229750267205711</v>
+        <v>0.761116</v>
       </c>
       <c r="O5">
-        <v>0.4285127875289797</v>
+        <v>0.302902927840894</v>
       </c>
       <c r="P5">
-        <v>0.4285127875289797</v>
+        <v>0.302902927840894</v>
       </c>
       <c r="Q5">
-        <v>0.9261920333979282</v>
+        <v>0.3158249996315555</v>
       </c>
       <c r="R5">
-        <v>0.9261920333979282</v>
+        <v>2.842424996684</v>
       </c>
       <c r="S5">
-        <v>0.2527732642705581</v>
+        <v>0.02816459827984414</v>
       </c>
       <c r="T5">
-        <v>0.2527732642705581</v>
+        <v>0.02816459827984414</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.72257373055118</v>
+        <v>1.244849666666667</v>
       </c>
       <c r="H6">
-        <v>1.72257373055118</v>
+        <v>3.734549</v>
       </c>
       <c r="I6">
-        <v>0.252057807517695</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="J6">
-        <v>0.252057807517695</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.306407051530485</v>
+        <v>0.1606383333333333</v>
       </c>
       <c r="N6">
-        <v>0.306407051530485</v>
+        <v>0.481915</v>
       </c>
       <c r="O6">
-        <v>0.5714872124710203</v>
+        <v>0.1917887213912786</v>
       </c>
       <c r="P6">
-        <v>0.5714872124710203</v>
+        <v>0.1917887213912786</v>
       </c>
       <c r="Q6">
-        <v>0.5278087378220552</v>
+        <v>0.1999705757038889</v>
       </c>
       <c r="R6">
-        <v>0.5278087378220552</v>
+        <v>1.799735181335</v>
       </c>
       <c r="S6">
-        <v>0.1440478137998445</v>
+        <v>0.01783294843365674</v>
       </c>
       <c r="T6">
-        <v>0.1440478137998445</v>
+        <v>0.01783294843365675</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.100633666666666</v>
+      </c>
+      <c r="H7">
+        <v>12.301901</v>
+      </c>
+      <c r="I7">
+        <v>0.3062909434327464</v>
+      </c>
+      <c r="J7">
+        <v>0.3062909434327464</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.04871</v>
+      </c>
+      <c r="N7">
+        <v>0.14613</v>
+      </c>
+      <c r="O7">
+        <v>0.05815566200866863</v>
+      </c>
+      <c r="P7">
+        <v>0.05815566200866864</v>
+      </c>
+      <c r="Q7">
+        <v>0.1997418659033333</v>
+      </c>
+      <c r="R7">
+        <v>1.79767679313</v>
+      </c>
+      <c r="S7">
+        <v>0.01781255258259104</v>
+      </c>
+      <c r="T7">
+        <v>0.01781255258259104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.100633666666666</v>
+      </c>
+      <c r="H8">
+        <v>12.301901</v>
+      </c>
+      <c r="I8">
+        <v>0.3062909434327464</v>
+      </c>
+      <c r="J8">
+        <v>0.3062909434327464</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.059142</v>
+      </c>
+      <c r="N8">
+        <v>0.177426</v>
+      </c>
+      <c r="O8">
+        <v>0.07061059664374214</v>
+      </c>
+      <c r="P8">
+        <v>0.07061059664374215</v>
+      </c>
+      <c r="Q8">
+        <v>0.242519676314</v>
+      </c>
+      <c r="R8">
+        <v>2.182677086826</v>
+      </c>
+      <c r="S8">
+        <v>0.0216273862623609</v>
+      </c>
+      <c r="T8">
+        <v>0.0216273862623609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.100633666666666</v>
+      </c>
+      <c r="H9">
+        <v>12.301901</v>
+      </c>
+      <c r="I9">
+        <v>0.3062909434327464</v>
+      </c>
+      <c r="J9">
+        <v>0.3062909434327464</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.3153840000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.9461520000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.3765420921154167</v>
+      </c>
+      <c r="P9">
+        <v>0.3765420921154167</v>
+      </c>
+      <c r="Q9">
+        <v>1.293274248328</v>
+      </c>
+      <c r="R9">
+        <v>11.639468234952</v>
+      </c>
+      <c r="S9">
+        <v>0.1153314326361711</v>
+      </c>
+      <c r="T9">
+        <v>0.1153314326361711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.100633666666666</v>
+      </c>
+      <c r="H10">
+        <v>12.301901</v>
+      </c>
+      <c r="I10">
+        <v>0.3062909434327464</v>
+      </c>
+      <c r="J10">
+        <v>0.3062909434327464</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2537053333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.761116</v>
+      </c>
+      <c r="O10">
+        <v>0.302902927840894</v>
+      </c>
+      <c r="P10">
+        <v>0.302902927840894</v>
+      </c>
+      <c r="Q10">
+        <v>1.040352631279555</v>
+      </c>
+      <c r="R10">
+        <v>9.363173681515999</v>
+      </c>
+      <c r="S10">
+        <v>0.09277642353692851</v>
+      </c>
+      <c r="T10">
+        <v>0.09277642353692851</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.72257373055118</v>
-      </c>
-      <c r="H7">
-        <v>1.72257373055118</v>
-      </c>
-      <c r="I7">
-        <v>0.252057807517695</v>
-      </c>
-      <c r="J7">
-        <v>0.252057807517695</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.229750267205711</v>
-      </c>
-      <c r="N7">
-        <v>0.229750267205711</v>
-      </c>
-      <c r="O7">
-        <v>0.4285127875289797</v>
-      </c>
-      <c r="P7">
-        <v>0.4285127875289797</v>
-      </c>
-      <c r="Q7">
-        <v>0.395761774875672</v>
-      </c>
-      <c r="R7">
-        <v>0.395761774875672</v>
-      </c>
-      <c r="S7">
-        <v>0.1080099937178505</v>
-      </c>
-      <c r="T7">
-        <v>0.1080099937178505</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.100633666666666</v>
+      </c>
+      <c r="H11">
+        <v>12.301901</v>
+      </c>
+      <c r="I11">
+        <v>0.3062909434327464</v>
+      </c>
+      <c r="J11">
+        <v>0.3062909434327464</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1606383333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.481915</v>
+      </c>
+      <c r="O11">
+        <v>0.1917887213912786</v>
+      </c>
+      <c r="P11">
+        <v>0.1917887213912786</v>
+      </c>
+      <c r="Q11">
+        <v>0.6587189578238888</v>
+      </c>
+      <c r="R11">
+        <v>5.928470620414999</v>
+      </c>
+      <c r="S11">
+        <v>0.05874314841469486</v>
+      </c>
+      <c r="T11">
+        <v>0.05874314841469487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>6.14883</v>
+      </c>
+      <c r="H12">
+        <v>18.44649</v>
+      </c>
+      <c r="I12">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="J12">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.04871</v>
+      </c>
+      <c r="N12">
+        <v>0.14613</v>
+      </c>
+      <c r="O12">
+        <v>0.05815566200866863</v>
+      </c>
+      <c r="P12">
+        <v>0.05815566200866864</v>
+      </c>
+      <c r="Q12">
+        <v>0.2995095093</v>
+      </c>
+      <c r="R12">
+        <v>2.6955855837</v>
+      </c>
+      <c r="S12">
+        <v>0.02670961773218951</v>
+      </c>
+      <c r="T12">
+        <v>0.02670961773218952</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>6.14883</v>
+      </c>
+      <c r="H13">
+        <v>18.44649</v>
+      </c>
+      <c r="I13">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="J13">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.059142</v>
+      </c>
+      <c r="N13">
+        <v>0.177426</v>
+      </c>
+      <c r="O13">
+        <v>0.07061059664374214</v>
+      </c>
+      <c r="P13">
+        <v>0.07061059664374215</v>
+      </c>
+      <c r="Q13">
+        <v>0.36365410386</v>
+      </c>
+      <c r="R13">
+        <v>3.27288693474</v>
+      </c>
+      <c r="S13">
+        <v>0.03242989554336177</v>
+      </c>
+      <c r="T13">
+        <v>0.03242989554336178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>6.14883</v>
+      </c>
+      <c r="H14">
+        <v>18.44649</v>
+      </c>
+      <c r="I14">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="J14">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3153840000000001</v>
+      </c>
+      <c r="N14">
+        <v>0.9461520000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.3765420921154167</v>
+      </c>
+      <c r="P14">
+        <v>0.3765420921154167</v>
+      </c>
+      <c r="Q14">
+        <v>1.93924260072</v>
+      </c>
+      <c r="R14">
+        <v>17.45318340648</v>
+      </c>
+      <c r="S14">
+        <v>0.1729375093173652</v>
+      </c>
+      <c r="T14">
+        <v>0.1729375093173652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>6.14883</v>
+      </c>
+      <c r="H15">
+        <v>18.44649</v>
+      </c>
+      <c r="I15">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="J15">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.2537053333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.761116</v>
+      </c>
+      <c r="O15">
+        <v>0.302902927840894</v>
+      </c>
+      <c r="P15">
+        <v>0.302902927840894</v>
+      </c>
+      <c r="Q15">
+        <v>1.55999096476</v>
+      </c>
+      <c r="R15">
+        <v>14.03991868284</v>
+      </c>
+      <c r="S15">
+        <v>0.13911665920655</v>
+      </c>
+      <c r="T15">
+        <v>0.13911665920655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>6.14883</v>
+      </c>
+      <c r="H16">
+        <v>18.44649</v>
+      </c>
+      <c r="I16">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="J16">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1606383333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.481915</v>
+      </c>
+      <c r="O16">
+        <v>0.1917887213912786</v>
+      </c>
+      <c r="P16">
+        <v>0.1917887213912786</v>
+      </c>
+      <c r="Q16">
+        <v>0.98773780315</v>
+      </c>
+      <c r="R16">
+        <v>8.88964022835</v>
+      </c>
+      <c r="S16">
+        <v>0.0880843456470821</v>
+      </c>
+      <c r="T16">
+        <v>0.08808434564708212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.893721</v>
+      </c>
+      <c r="H17">
+        <v>5.681163</v>
+      </c>
+      <c r="I17">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="J17">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.04871</v>
+      </c>
+      <c r="N17">
+        <v>0.14613</v>
+      </c>
+      <c r="O17">
+        <v>0.05815566200866863</v>
+      </c>
+      <c r="P17">
+        <v>0.05815566200866864</v>
+      </c>
+      <c r="Q17">
+        <v>0.09224314991</v>
+      </c>
+      <c r="R17">
+        <v>0.8301883491900001</v>
+      </c>
+      <c r="S17">
+        <v>0.008226046906715528</v>
+      </c>
+      <c r="T17">
+        <v>0.008226046906715532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.893721</v>
+      </c>
+      <c r="H18">
+        <v>5.681163</v>
+      </c>
+      <c r="I18">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="J18">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.059142</v>
+      </c>
+      <c r="N18">
+        <v>0.177426</v>
+      </c>
+      <c r="O18">
+        <v>0.07061059664374214</v>
+      </c>
+      <c r="P18">
+        <v>0.07061059664374215</v>
+      </c>
+      <c r="Q18">
+        <v>0.111998447382</v>
+      </c>
+      <c r="R18">
+        <v>1.007986026438</v>
+      </c>
+      <c r="S18">
+        <v>0.009987782101354337</v>
+      </c>
+      <c r="T18">
+        <v>0.009987782101354339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.893721</v>
+      </c>
+      <c r="H19">
+        <v>5.681163</v>
+      </c>
+      <c r="I19">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="J19">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3153840000000001</v>
+      </c>
+      <c r="N19">
+        <v>0.9461520000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.3765420921154167</v>
+      </c>
+      <c r="P19">
+        <v>0.3765420921154167</v>
+      </c>
+      <c r="Q19">
+        <v>0.5972493038640001</v>
+      </c>
+      <c r="R19">
+        <v>5.375243734776</v>
+      </c>
+      <c r="S19">
+        <v>0.0532614160876118</v>
+      </c>
+      <c r="T19">
+        <v>0.0532614160876118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.893721</v>
+      </c>
+      <c r="H20">
+        <v>5.681163</v>
+      </c>
+      <c r="I20">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="J20">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.2537053333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.761116</v>
+      </c>
+      <c r="O20">
+        <v>0.302902927840894</v>
+      </c>
+      <c r="P20">
+        <v>0.302902927840894</v>
+      </c>
+      <c r="Q20">
+        <v>0.4804471175453333</v>
+      </c>
+      <c r="R20">
+        <v>4.324024057908</v>
+      </c>
+      <c r="S20">
+        <v>0.04284524681757132</v>
+      </c>
+      <c r="T20">
+        <v>0.04284524681757132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.893721</v>
+      </c>
+      <c r="H21">
+        <v>5.681163</v>
+      </c>
+      <c r="I21">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="J21">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1606383333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.481915</v>
+      </c>
+      <c r="O21">
+        <v>0.1917887213912786</v>
+      </c>
+      <c r="P21">
+        <v>0.1917887213912786</v>
+      </c>
+      <c r="Q21">
+        <v>0.3042041852383333</v>
+      </c>
+      <c r="R21">
+        <v>2.737837667145</v>
+      </c>
+      <c r="S21">
+        <v>0.02712827889584489</v>
+      </c>
+      <c r="T21">
+        <v>0.0271282788958449</v>
       </c>
     </row>
   </sheetData>
